--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,70 @@
   </si>
   <si>
     <t>pay_failed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect-store.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect-comm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-site.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址-收货地址修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址-添加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,6 +561,70 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -40,42 +40,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>正在支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址-收货地址修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site-change.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址-添加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mj-order-con.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正在支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mj-ls-pay.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pay-success.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_failed.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的收藏-店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏-商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>collect-store.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,51 +124,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-site.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的地址-收货地址修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site-change.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的地址-添加地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bill.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opinion.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,95 +534,95 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,50 @@
   </si>
   <si>
     <t>bill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centre.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind-card.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-record.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-re-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-re-failure.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录详情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录详情2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,6 +669,51 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -100,79 +100,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mj-ls-pay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay-success.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_failed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect-store.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect-comm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-site.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centre.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind-card.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-record.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-re-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-re-failure.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录详情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现记录详情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mj-order-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mj-ls-pay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay-success.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_failed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect-store.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect-comm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-site.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centre.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl-代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bind-card.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-record.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-re-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-re-failure.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现记录详情1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现记录详情2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,47 +671,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -100,6 +100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mj-order-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mj-ls-pay.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +173,6 @@
   </si>
   <si>
     <t>提现记录详情2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mj-order-con.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,47 +671,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,90 @@
   </si>
   <si>
     <t>提现记录详情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sus-apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请开店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请开店 -昵称设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sus-apply-two.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-ver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码-重设密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码-验证手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-ver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bound-mp.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bound-mp.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,6 +798,91 @@
         <v>37</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wd-我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>safety-ver.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,14 +253,74 @@
   </si>
   <si>
     <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-微代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter-tn.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter-tn-two.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnvite.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnvite-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnvite-failure.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请加盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请加盟-成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请加盟-失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-card.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,7 +462,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -441,7 +496,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,26 +671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.25" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -644,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -652,12 +706,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -665,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -673,7 +727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -681,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -689,7 +743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -697,7 +751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -705,7 +759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -713,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -721,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -729,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -737,7 +791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -745,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -753,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -761,12 +815,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -774,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -782,7 +836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -790,7 +844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -798,7 +852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -806,7 +860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -814,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -822,15 +876,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -838,7 +892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -846,41 +900,97 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="22.5">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,46 @@
   </si>
   <si>
     <t>我的银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ag-details.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理详情3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ag-details-two.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-failure.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-entrepot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理-未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理-已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-succeed.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -862,89 +902,73 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
         <v>73</v>
       </c>
     </row>
@@ -991,6 +1015,62 @@
       </c>
       <c r="B43" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sus-apply.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请开店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申请开店 -昵称设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,38 +192,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码-重设密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码-验证手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>safety-ver.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安全验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re-code.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码-重设密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码-验证手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safety-ver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绑定手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,46 +228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑定手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bound-mp.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>找回密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改店名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改店名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-微代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter-tn.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter-tn-two.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter-code.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lnvite.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,43 +264,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ag-details.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理详情3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ag-details-two.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task-failure.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-entrepot.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务管理-未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务管理-已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task-succeed.html</t>
+    <t>代理商登录-完成注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-up.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-log.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录注册账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录页面 - 已有账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-stop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,222 +803,169 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22.5">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="22.5">
-      <c r="A38" s="1" t="s">
-        <v>63</v>
+    </row>
+    <row r="35" spans="1:2" ht="22.5">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A27" sqref="A27:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -694,277 +694,277 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="22.5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="22.5">
-      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.5">
+      <c r="A27" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
         <v>43</v>
       </c>
     </row>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,90 @@
   </si>
   <si>
     <t>agency-stop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st-register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-微代</t>
+  </si>
+  <si>
+    <t>安全验证</t>
+  </si>
+  <si>
+    <t>safety-ver.html</t>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>bound-mp.html</t>
+  </si>
+  <si>
+    <t>修改店名</t>
+  </si>
+  <si>
+    <t>alter-tn.html</t>
+  </si>
+  <si>
+    <t>修改店名2</t>
+  </si>
+  <si>
+    <t>alter-tn-two.html</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>alter-code.html</t>
+  </si>
+  <si>
+    <t>代理详情</t>
+  </si>
+  <si>
+    <t>ag-details.html</t>
+  </si>
+  <si>
+    <t>代理详情3</t>
+  </si>
+  <si>
+    <t>ag-details-two.html</t>
+  </si>
+  <si>
+    <t>任务管理-未完成</t>
+  </si>
+  <si>
+    <t>task-failure.html</t>
+  </si>
+  <si>
+    <t>任务管理-已完成</t>
+  </si>
+  <si>
+    <t>task-succeed.html</t>
+  </si>
+  <si>
+    <t>我的仓库</t>
+  </si>
+  <si>
+    <t>申请开店</t>
+  </si>
+  <si>
+    <t>sus-apply.html</t>
+  </si>
+  <si>
+    <t>申请开店 -昵称设置</t>
+  </si>
+  <si>
+    <t>sus-apply-two.html</t>
+  </si>
+  <si>
+    <t>my-entrepot.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +437,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,14 +452,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -660,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -734,6 +814,14 @@
         <v>71</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" ht="22.5">
       <c r="A10" s="1" t="s">
         <v>5</v>
@@ -966,6 +1054,108 @@
       </c>
       <c r="B42" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="22.5">
+      <c r="A45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -740,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -831,7 +831,7 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -984,7 +984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -992,7 +992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1008,15 +1008,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1056,13 +1056,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="22.5">
+    <row r="45" spans="1:3" ht="22.5">
       <c r="A45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,15 +200,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>re-code.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码-重设密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码-验证手机</t>
+    <t>绑定手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find-code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bound-mp.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnvite.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnvite-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnvite-failure.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请加盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请加盟-成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请加盟-失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-card.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录-完成注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-up.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-log.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-end.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录注册账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商登录页面 - 已有账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency-stop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st-register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd-微代</t>
+  </si>
+  <si>
+    <t>安全验证</t>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>bound-mp.html</t>
+  </si>
+  <si>
+    <t>修改店名</t>
+  </si>
+  <si>
+    <t>alter-tn.html</t>
+  </si>
+  <si>
+    <t>修改店名2</t>
+  </si>
+  <si>
+    <t>alter-tn-two.html</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>alter-code.html</t>
+  </si>
+  <si>
+    <t>代理详情</t>
+  </si>
+  <si>
+    <t>ag-details.html</t>
+  </si>
+  <si>
+    <t>代理详情3</t>
+  </si>
+  <si>
+    <t>ag-details-two.html</t>
+  </si>
+  <si>
+    <t>任务管理-未完成</t>
+  </si>
+  <si>
+    <t>task-failure.html</t>
+  </si>
+  <si>
+    <t>任务管理-已完成</t>
+  </si>
+  <si>
+    <t>task-succeed.html</t>
+  </si>
+  <si>
+    <t>我的仓库</t>
+  </si>
+  <si>
+    <t>申请开店</t>
+  </si>
+  <si>
+    <t>sus-apply.html</t>
+  </si>
+  <si>
+    <t>申请开店 -昵称设置</t>
+  </si>
+  <si>
+    <t>sus-apply-two.html</t>
+  </si>
+  <si>
+    <t>my-entrepot.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,175 +373,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑定手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find-code.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bound-mp.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lnvite.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lnvite-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lnvite-failure.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请加盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请加盟-成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请加盟-失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-card.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的银行卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商登录-完成注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency-register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency-up.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency-log.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency-end.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商登录注册账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商登录页面 - 已有账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency-stop.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st-register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd-微代</t>
-  </si>
-  <si>
-    <t>安全验证</t>
-  </si>
-  <si>
-    <t>safety-ver.html</t>
-  </si>
-  <si>
-    <t>绑定手机号</t>
-  </si>
-  <si>
-    <t>bound-mp.html</t>
-  </si>
-  <si>
-    <t>修改店名</t>
-  </si>
-  <si>
-    <t>alter-tn.html</t>
-  </si>
-  <si>
-    <t>修改店名2</t>
-  </si>
-  <si>
-    <t>alter-tn-two.html</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>alter-code.html</t>
-  </si>
-  <si>
-    <t>代理详情</t>
-  </si>
-  <si>
-    <t>ag-details.html</t>
-  </si>
-  <si>
-    <t>代理详情3</t>
-  </si>
-  <si>
-    <t>ag-details-two.html</t>
-  </si>
-  <si>
-    <t>任务管理-未完成</t>
-  </si>
-  <si>
-    <t>task-failure.html</t>
-  </si>
-  <si>
-    <t>任务管理-已完成</t>
-  </si>
-  <si>
-    <t>task-succeed.html</t>
-  </si>
-  <si>
-    <t>我的仓库</t>
-  </si>
-  <si>
-    <t>申请开店</t>
-  </si>
-  <si>
-    <t>sus-apply.html</t>
-  </si>
-  <si>
-    <t>申请开店 -昵称设置</t>
-  </si>
-  <si>
-    <t>sus-apply-two.html</t>
-  </si>
-  <si>
-    <t>my-entrepot.html</t>
+    <t>搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-result.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -776,50 +769,50 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="22.5">
@@ -919,7 +912,7 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -931,6 +924,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="1" t="s">
         <v>31</v>
@@ -978,185 +979,169 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="22.5">
-      <c r="A45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="43" spans="1:3" ht="22.5">
+      <c r="A43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -356,28 +356,29 @@
     <t>申请开店</t>
   </si>
   <si>
+    <t>申请开店 -昵称设置</t>
+  </si>
+  <si>
+    <t>sus-apply-two.html</t>
+  </si>
+  <si>
+    <t>my-entrepot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-ver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-result.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sus-apply.html</t>
-  </si>
-  <si>
-    <t>申请开店 -昵称设置</t>
-  </si>
-  <si>
-    <t>sus-apply-two.html</t>
-  </si>
-  <si>
-    <t>my-entrepot.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safety-ver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-result.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -926,10 +927,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22.5">
@@ -989,7 +990,7 @@
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1053,7 +1054,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1125,7 +1126,7 @@
         <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1133,15 +1134,15 @@
         <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>sus-apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队-收人明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> team-income.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +745,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1042,6 +1050,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="43" spans="1:3" ht="22.5">
       <c r="A43" s="3" t="s">
         <v>70</v>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,52 +341,60 @@
     <t>任务管理-未完成</t>
   </si>
   <si>
+    <t>任务管理-已完成</t>
+  </si>
+  <si>
+    <t>task-succeed.html</t>
+  </si>
+  <si>
+    <t>我的仓库</t>
+  </si>
+  <si>
+    <t>申请开店</t>
+  </si>
+  <si>
+    <t>申请开店 -昵称设置</t>
+  </si>
+  <si>
+    <t>sus-apply-two.html</t>
+  </si>
+  <si>
+    <t>my-entrepot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-ver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-result.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sus-apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队-收人明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> team-income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>task-failure.html</t>
-  </si>
-  <si>
-    <t>任务管理-已完成</t>
-  </si>
-  <si>
-    <t>task-succeed.html</t>
-  </si>
-  <si>
-    <t>我的仓库</t>
-  </si>
-  <si>
-    <t>申请开店</t>
-  </si>
-  <si>
-    <t>申请开店 -昵称设置</t>
-  </si>
-  <si>
-    <t>sus-apply-two.html</t>
-  </si>
-  <si>
-    <t>my-entrepot.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safety-ver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-result.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sus-apply.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队-收人明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> team-income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展柜任务</t>
+  </si>
+  <si>
+    <t>task-record.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -935,10 +943,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22.5">
@@ -1052,10 +1060,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="22.5">
@@ -1070,7 +1078,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1126,39 +1134,47 @@
         <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>91</v>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,38 @@
   </si>
   <si>
     <t>task-record.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-course.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-total.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total-convert.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1177,6 +1209,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,14 @@
   </si>
   <si>
     <t>convert.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -981,6 +989,14 @@
         <v>94</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="1" t="s">
         <v>31</v>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -329,112 +329,113 @@
     <t>代理详情</t>
   </si>
   <si>
+    <t>代理详情3</t>
+  </si>
+  <si>
+    <t>ag-details-two.html</t>
+  </si>
+  <si>
+    <t>任务管理-未完成</t>
+  </si>
+  <si>
+    <t>任务管理-已完成</t>
+  </si>
+  <si>
+    <t>task-succeed.html</t>
+  </si>
+  <si>
+    <t>我的仓库</t>
+  </si>
+  <si>
+    <t>申请开店</t>
+  </si>
+  <si>
+    <t>申请开店 -昵称设置</t>
+  </si>
+  <si>
+    <t>sus-apply-two.html</t>
+  </si>
+  <si>
+    <t>my-entrepot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-ver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-result.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sus-apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队-收人明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> team-income.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-failure.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展柜任务</t>
+  </si>
+  <si>
+    <t>task-record.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-course.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-total.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total-convert.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ag-details.html</t>
-  </si>
-  <si>
-    <t>代理详情3</t>
-  </si>
-  <si>
-    <t>ag-details-two.html</t>
-  </si>
-  <si>
-    <t>任务管理-未完成</t>
-  </si>
-  <si>
-    <t>任务管理-已完成</t>
-  </si>
-  <si>
-    <t>task-succeed.html</t>
-  </si>
-  <si>
-    <t>我的仓库</t>
-  </si>
-  <si>
-    <t>申请开店</t>
-  </si>
-  <si>
-    <t>申请开店 -昵称设置</t>
-  </si>
-  <si>
-    <t>sus-apply-two.html</t>
-  </si>
-  <si>
-    <t>my-entrepot.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safety-ver.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search-result.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sus-apply.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队-收人明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> team-income.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task-failure.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展柜任务</t>
-  </si>
-  <si>
-    <t>task-record.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task-course.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task-total.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total-convert.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>convert.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,7 +794,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -983,18 +984,18 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22.5">
@@ -1108,10 +1109,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="22.5">
@@ -1126,7 +1127,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1166,95 +1167,95 @@
         <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +436,14 @@
   </si>
   <si>
     <t>ag-details.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册 整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter-one.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +802,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -998,6 +1006,14 @@
         <v>109</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="1" t="s">
         <v>31</v>

--- a/陈瑜页面对照表.xlsx
+++ b/陈瑜页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>cs-厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,14 @@
   </si>
   <si>
     <t>enter-one.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动大厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1274,6 +1282,14 @@
         <v>107</v>
       </c>
     </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
